--- a/data/trans_orig/P21C-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P21C-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>66929</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60732</v>
+        <v>60624</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>69303</v>
+        <v>69304</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9540904771649082</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8657517350783067</v>
+        <v>0.8641986017724528</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9879271163360298</v>
+        <v>0.9879417866189162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -765,19 +765,19 @@
         <v>52658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>45575</v>
+        <v>45483</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57906</v>
+        <v>57596</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8266951199673795</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7154990138010031</v>
+        <v>0.7140547273192061</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9090922608117299</v>
+        <v>0.9042246539630894</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>119</v>
@@ -786,19 +786,19 @@
         <v>119588</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110672</v>
+        <v>111050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>125552</v>
+        <v>125801</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8934637559037387</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8268491464283604</v>
+        <v>0.8296711534452176</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.938019849613601</v>
+        <v>0.9398798369012697</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>3221</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9418</v>
+        <v>9526</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0459095228350918</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0120728836639702</v>
+        <v>0.01205821338108381</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1342482649216942</v>
+        <v>0.1358013982275466</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -836,19 +836,19 @@
         <v>11039</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5791</v>
+        <v>6101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18122</v>
+        <v>18214</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1733048800326204</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09090773918827004</v>
+        <v>0.09577534603691062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2845009861989969</v>
+        <v>0.285945272680794</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>15</v>
@@ -857,19 +857,19 @@
         <v>14260</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8296</v>
+        <v>8047</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23176</v>
+        <v>22798</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1065362440962613</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.06198015038639894</v>
+        <v>0.06012016309873025</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1731508535716394</v>
+        <v>0.1703288465547822</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>59947</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>52973</v>
+        <v>53235</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63857</v>
+        <v>64550</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8871041860024396</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7839059920255848</v>
+        <v>0.7877741622474318</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9449695493455474</v>
+        <v>0.9552197207094911</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>113</v>
@@ -982,19 +982,19 @@
         <v>122425</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>114544</v>
+        <v>113858</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>128164</v>
+        <v>128038</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9125087882307306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8537649043399363</v>
+        <v>0.8486559036720219</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9552888684662282</v>
+        <v>0.9543431234697313</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>170</v>
@@ -1003,19 +1003,19 @@
         <v>182372</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>172157</v>
+        <v>172115</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>189997</v>
+        <v>189881</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9039990233649305</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8533671610693502</v>
+        <v>0.8531560368483156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9417984003094164</v>
+        <v>0.9412224605185485</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>7629</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3719</v>
+        <v>3026</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14603</v>
+        <v>14341</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1128958139975604</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05503045065445248</v>
+        <v>0.04478027929050889</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2160940079744152</v>
+        <v>0.2122258377525679</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>11</v>
@@ -1053,19 +1053,19 @@
         <v>11738</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5999</v>
+        <v>6125</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19619</v>
+        <v>20305</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0874912117692694</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04471113153377181</v>
+        <v>0.04565687653026896</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1462350956600637</v>
+        <v>0.1513440963279788</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -1074,19 +1074,19 @@
         <v>19367</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11742</v>
+        <v>11858</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>29582</v>
+        <v>29624</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09600097663506947</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05820159969058394</v>
+        <v>0.05877753948145168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1466328389306501</v>
+        <v>0.1468439631516844</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>63968</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>57013</v>
+        <v>55877</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>68689</v>
+        <v>68586</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.880175318341804</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7844828497315305</v>
+        <v>0.7688487748157939</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9451334497913286</v>
+        <v>0.9437225100342197</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -1199,19 +1199,19 @@
         <v>81885</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74126</v>
+        <v>74532</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87092</v>
+        <v>86826</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8780805254634234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7948787282983152</v>
+        <v>0.7992345751460285</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9339276172446637</v>
+        <v>0.9310684092090842</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -1220,19 +1220,19 @@
         <v>145852</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135164</v>
+        <v>136288</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153095</v>
+        <v>153510</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8789980226505645</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.814583891350954</v>
+        <v>0.8213571395003105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9226458800256432</v>
+        <v>0.9251475756638973</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>8708</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3987</v>
+        <v>4090</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15663</v>
+        <v>16799</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.119824681658196</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05486655020867124</v>
+        <v>0.05627748996578045</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2155171502684693</v>
+        <v>0.2311512251842073</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -1270,19 +1270,19 @@
         <v>11369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6162</v>
+        <v>6428</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>19128</v>
+        <v>18722</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1219194745365766</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06607238275533636</v>
+        <v>0.06893159079091596</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2051212717016849</v>
+        <v>0.2007654248539715</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>19</v>
@@ -1291,19 +1291,19 @@
         <v>20078</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>12835</v>
+        <v>12420</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>30766</v>
+        <v>29642</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1210019773494355</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.07735411997435686</v>
+        <v>0.07485242433610279</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.185416108649046</v>
+        <v>0.1786428604996895</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>44482</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>37799</v>
+        <v>37502</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>48368</v>
+        <v>48347</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8986246884765636</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7636061530091557</v>
+        <v>0.7576134967810999</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.977138715362167</v>
+        <v>0.976715729014106</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>62</v>
@@ -1416,19 +1416,19 @@
         <v>62242</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55436</v>
+        <v>55550</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>66491</v>
+        <v>66569</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8827316165621719</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7862043364182394</v>
+        <v>0.7878169079645464</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9429855258445862</v>
+        <v>0.9440870889257568</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>104</v>
@@ -1437,19 +1437,19 @@
         <v>106724</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97308</v>
+        <v>98490</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>112958</v>
+        <v>112889</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8892868694710045</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8108292883691133</v>
+        <v>0.8206766969026127</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9412319241028273</v>
+        <v>0.9406541223981939</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>5018</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1132</v>
+        <v>1153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11701</v>
+        <v>11998</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1013753115234364</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02286128463783303</v>
+        <v>0.02328427098589404</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2363938469908448</v>
+        <v>0.2423865032189005</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1487,19 +1487,19 @@
         <v>8269</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4020</v>
+        <v>3942</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15075</v>
+        <v>14961</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.117268383437828</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05701447415541389</v>
+        <v>0.05591291107424316</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2137956635817607</v>
+        <v>0.2121830920354537</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -1508,19 +1508,19 @@
         <v>13287</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7053</v>
+        <v>7122</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>22703</v>
+        <v>21521</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1107131305289954</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05876807589717265</v>
+        <v>0.05934587760180608</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1891707116308867</v>
+        <v>0.1793233030973871</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>33085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26824</v>
+        <v>27525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37034</v>
+        <v>36909</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.838432437539972</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6797754082070288</v>
+        <v>0.6975335391933631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9385243240903809</v>
+        <v>0.9353533782496778</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>48</v>
@@ -1633,19 +1633,19 @@
         <v>48757</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>42600</v>
+        <v>42567</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52964</v>
+        <v>52929</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8615138102327369</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7527222607492566</v>
+        <v>0.7521283225063863</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9358345235602845</v>
+        <v>0.935230165679568</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>82</v>
@@ -1654,19 +1654,19 @@
         <v>81843</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>73023</v>
+        <v>73806</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87839</v>
+        <v>87970</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.852031845634811</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7602174910770025</v>
+        <v>0.7683684377140262</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.914454749885416</v>
+        <v>0.9158197086994475</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>6375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2426</v>
+        <v>2551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>12636</v>
+        <v>11935</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.161567562460028</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06147567590961913</v>
+        <v>0.06464662175032217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3202245917929711</v>
+        <v>0.3024664608066368</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>8</v>
@@ -1704,19 +1704,19 @@
         <v>7838</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3631</v>
+        <v>3666</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>13995</v>
+        <v>14028</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1384861897672631</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06416547643971547</v>
+        <v>0.06476983432043196</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2472777392507431</v>
+        <v>0.2478716774936136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1725,19 +1725,19 @@
         <v>14213</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8217</v>
+        <v>8086</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23033</v>
+        <v>22250</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.147968154365189</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08554525011458407</v>
+        <v>0.08418029130055252</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2397825089229977</v>
+        <v>0.2316315622859739</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>37959</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>32662</v>
+        <v>32957</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>42365</v>
+        <v>42213</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8267142507674684</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7113355079212228</v>
+        <v>0.7177708889698342</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9226656673918003</v>
+        <v>0.9193490270503888</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>61</v>
@@ -1850,19 +1850,19 @@
         <v>56401</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>50173</v>
+        <v>50011</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60667</v>
+        <v>60635</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8720003030930447</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7757051161487509</v>
+        <v>0.7732077318138121</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.937953523840324</v>
+        <v>0.9374551072854473</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>101</v>
@@ -1871,19 +1871,19 @@
         <v>94360</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>85926</v>
+        <v>86392</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100291</v>
+        <v>100035</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8531988267769134</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7769385846662575</v>
+        <v>0.7811517751435478</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9068195299679072</v>
+        <v>0.9045086429129011</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>7957</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3551</v>
+        <v>3703</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>13254</v>
+        <v>12959</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1732857492325316</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.0773343326081997</v>
+        <v>0.08065097294961149</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2886644920787773</v>
+        <v>0.2822291110301658</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -1921,19 +1921,19 @@
         <v>8279</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4013</v>
+        <v>4045</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14507</v>
+        <v>14669</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1279996969069553</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06204647615967601</v>
+        <v>0.06254489271455249</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.224294883851249</v>
+        <v>0.2267922681861879</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>18</v>
@@ -1942,19 +1942,19 @@
         <v>16236</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10305</v>
+        <v>10561</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24670</v>
+        <v>24204</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1468011732230866</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09318047003209297</v>
+        <v>0.09549135708709892</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2230614153337426</v>
+        <v>0.2188482248564523</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>33131</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27256</v>
+        <v>26957</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>36807</v>
+        <v>37422</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8222818927606719</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6764541113133321</v>
+        <v>0.6690384516705519</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9135102401911849</v>
+        <v>0.9287663634528244</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>60</v>
@@ -2067,19 +2067,19 @@
         <v>70029</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>63184</v>
+        <v>63270</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74417</v>
+        <v>74332</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9024272744337527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.814212779215215</v>
+        <v>0.8153199587868639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9589754726551023</v>
+        <v>0.9578744523324808</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>94</v>
@@ -2088,19 +2088,19 @@
         <v>103160</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>94177</v>
+        <v>94981</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>109171</v>
+        <v>109393</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8750363281043128</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7988382919734163</v>
+        <v>0.8056596133848417</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9260221329830646</v>
+        <v>0.9279086166594572</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>7161</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3485</v>
+        <v>2870</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13036</v>
+        <v>13335</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1777181072393281</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08648975980881481</v>
+        <v>0.07123363654717552</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3235458886866676</v>
+        <v>0.3309615483294474</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2138,19 +2138,19 @@
         <v>7572</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3184</v>
+        <v>3269</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>14417</v>
+        <v>14331</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.09757272556624735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0410245273448978</v>
+        <v>0.04212554766751928</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1857872207847867</v>
+        <v>0.1846800412131361</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>15</v>
@@ -2159,19 +2159,19 @@
         <v>14732</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8721</v>
+        <v>8499</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23715</v>
+        <v>22911</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1249636718956872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07397786701693561</v>
+        <v>0.07209138334054288</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2011617080265841</v>
+        <v>0.1943403866151584</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>339501</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>324715</v>
+        <v>324957</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>351175</v>
+        <v>350941</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8805179401995737</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8421682343662917</v>
+        <v>0.8427960207553877</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9107955171546089</v>
+        <v>0.910187998699395</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>477</v>
@@ -2284,19 +2284,19 @@
         <v>494398</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>477931</v>
+        <v>478829</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>508194</v>
+        <v>507889</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8820631750228606</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8526832268463296</v>
+        <v>0.8542854186138042</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9066758689427471</v>
+        <v>0.9061326820267992</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>811</v>
@@ -2305,19 +2305,19 @@
         <v>833899</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>812817</v>
+        <v>810953</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>852861</v>
+        <v>852394</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8814334167996908</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8591493176540953</v>
+        <v>0.8571794680427558</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.901475350011596</v>
+        <v>0.9009820523525092</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>46069</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>34395</v>
+        <v>34629</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>60855</v>
+        <v>60613</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1194820598004262</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08920448284539102</v>
+        <v>0.08981200130060493</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1578317656337083</v>
+        <v>0.1572039792446123</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -2355,19 +2355,19 @@
         <v>66104</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52308</v>
+        <v>52613</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>82571</v>
+        <v>81673</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1179368249771394</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09332413105725289</v>
+        <v>0.09386731797320079</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1473167731536707</v>
+        <v>0.1457145813861958</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>111</v>
@@ -2376,19 +2376,19 @@
         <v>112173</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>93211</v>
+        <v>93678</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>133255</v>
+        <v>135119</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1185665832003092</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09852464998840399</v>
+        <v>0.09901794764749074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1408506823459046</v>
+        <v>0.1428205319572441</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>51871</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>46765</v>
+        <v>46240</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54882</v>
+        <v>54887</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.927115546314027</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8358522273467265</v>
+        <v>0.8264625807170738</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9809347782408678</v>
+        <v>0.9810241439534795</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>61</v>
@@ -2744,19 +2744,19 @@
         <v>62067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>55078</v>
+        <v>55292</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>66800</v>
+        <v>67133</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8593383500747163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7625685031674997</v>
+        <v>0.7655242660977373</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9248566830900654</v>
+        <v>0.9294791920473398</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>113</v>
@@ -2765,19 +2765,19 @@
         <v>113939</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>105072</v>
+        <v>106121</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>120018</v>
+        <v>120105</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8889230869929604</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8197453958218693</v>
+        <v>0.8279317468396333</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9363512674143801</v>
+        <v>0.937033794460909</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>4078</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9184</v>
+        <v>9709</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07288445368597295</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01906522175913218</v>
+        <v>0.01897585604652048</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1641477726532735</v>
+        <v>0.1735374192829262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>10</v>
@@ -2815,19 +2815,19 @@
         <v>10160</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5427</v>
+        <v>5094</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17149</v>
+        <v>16935</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1406616499252837</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07514331690993474</v>
+        <v>0.07052080795266039</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2374314968325004</v>
+        <v>0.2344757339022628</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -2836,19 +2836,19 @@
         <v>14237</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8158</v>
+        <v>8071</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23104</v>
+        <v>22055</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1110769130070396</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0636487325856198</v>
+        <v>0.06296620553909109</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1802546041781298</v>
+        <v>0.172068253160367</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>82713</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>76197</v>
+        <v>74814</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>87846</v>
+        <v>88294</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8765494032569423</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8074960618876361</v>
+        <v>0.7928443262558853</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9309423919683161</v>
+        <v>0.9356891890689235</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -2961,19 +2961,19 @@
         <v>119168</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>110719</v>
+        <v>110376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>124267</v>
+        <v>123773</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9257582800471847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.860123902493297</v>
+        <v>0.8574556453355138</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9653695615043995</v>
+        <v>0.9615342745614688</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>187</v>
@@ -2982,19 +2982,19 @@
         <v>201881</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>190837</v>
+        <v>191042</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>209325</v>
+        <v>209486</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9049438436378628</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8554369176089787</v>
+        <v>0.8563546505195239</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9383111605906712</v>
+        <v>0.9390322282324891</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>11649</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6516</v>
+        <v>6068</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18165</v>
+        <v>19548</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1234505967430577</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06905760803168381</v>
+        <v>0.06431081093107659</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1925039381123638</v>
+        <v>0.2071556737441148</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>8</v>
@@ -3032,19 +3032,19 @@
         <v>9557</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>4458</v>
+        <v>4952</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18006</v>
+        <v>18349</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0742417199528152</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03463043849560046</v>
+        <v>0.03846572543853125</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1398760975067031</v>
+        <v>0.1425443546644862</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>20</v>
@@ -3053,19 +3053,19 @@
         <v>21206</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13762</v>
+        <v>13601</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32250</v>
+        <v>32045</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0950561563621371</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0616888394093288</v>
+        <v>0.0609677717675109</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1445630823910214</v>
+        <v>0.1436453494804761</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>62013</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>54240</v>
+        <v>54986</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65865</v>
+        <v>65815</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9143744106548413</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7997671707109352</v>
+        <v>0.8107602748188583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9711762041553341</v>
+        <v>0.9704421896334978</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>77</v>
@@ -3178,19 +3178,19 @@
         <v>83579</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>74936</v>
+        <v>74964</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>90510</v>
+        <v>90194</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8327094898673861</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.74659920193808</v>
+        <v>0.7468746159521955</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.901762395092251</v>
+        <v>0.8986167760381084</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>138</v>
@@ -3199,19 +3199,19 @@
         <v>145592</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>135075</v>
+        <v>135961</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>153790</v>
+        <v>153627</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8656394413514605</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8031078742732887</v>
+        <v>0.80837615466973</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9143810865930392</v>
+        <v>0.9134158027854844</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>5807</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1955</v>
+        <v>2005</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13580</v>
+        <v>12834</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08562558934515872</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02882379584466595</v>
+        <v>0.02955781036650222</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2002328292890646</v>
+        <v>0.1892397251811419</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>16</v>
@@ -3249,19 +3249,19 @@
         <v>16791</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>9860</v>
+        <v>10176</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>25434</v>
+        <v>25406</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1672905101326138</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09823760490774901</v>
+        <v>0.1013832239618914</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2534007980619198</v>
+        <v>0.2531253840478043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -3270,19 +3270,19 @@
         <v>22598</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14400</v>
+        <v>14563</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33115</v>
+        <v>32229</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1343605586485394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08561891340696076</v>
+        <v>0.08658419721451555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1968921257267112</v>
+        <v>0.1916238453302699</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>52962</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>45630</v>
+        <v>45930</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>57571</v>
+        <v>57526</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8572645821944664</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7385938982261089</v>
+        <v>0.7434399880201562</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9318650377115487</v>
+        <v>0.9311442207979364</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>59</v>
@@ -3395,19 +3395,19 @@
         <v>69214</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>60026</v>
+        <v>61035</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>75210</v>
+        <v>75774</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8210203735876423</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7120370984551024</v>
+        <v>0.7240034937911013</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.892147278192018</v>
+        <v>0.8988454900428805</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>109</v>
@@ -3416,19 +3416,19 @@
         <v>122175</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111086</v>
+        <v>110612</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>129817</v>
+        <v>130031</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8363486212678877</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7604372580894528</v>
+        <v>0.7571881741919007</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8886586401334895</v>
+        <v>0.8901253792947138</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>8818</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4209</v>
+        <v>4254</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>16150</v>
+        <v>15850</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1427354178055335</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06813496228845123</v>
+        <v>0.06885577920206364</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2614061017738912</v>
+        <v>0.2565600119798452</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>14</v>
@@ -3466,19 +3466,19 @@
         <v>15088</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9092</v>
+        <v>8528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24276</v>
+        <v>23267</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1789796264123577</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.107852721807982</v>
+        <v>0.1011545099571199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2879629015448981</v>
+        <v>0.2759965062088988</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -3487,19 +3487,19 @@
         <v>23907</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>16265</v>
+        <v>16051</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34996</v>
+        <v>35470</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1636513787321123</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1113413598665104</v>
+        <v>0.1098746207052863</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2395627419105472</v>
+        <v>0.2428118258080993</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>35347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>28944</v>
+        <v>29042</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39685</v>
+        <v>39677</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8035061981008463</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6579455445310329</v>
+        <v>0.6601850979900749</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.90211399723594</v>
+        <v>0.9019305110465869</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -3612,19 +3612,19 @@
         <v>56670</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49506</v>
+        <v>48944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>62132</v>
+        <v>62058</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8156234291647665</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7125145591256936</v>
+        <v>0.7044263432002724</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.894236704037894</v>
+        <v>0.89316834842702</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>88</v>
@@ -3633,19 +3633,19 @@
         <v>92017</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>82335</v>
+        <v>82305</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>99547</v>
+        <v>100323</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8109257984460798</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7255934549043891</v>
+        <v>0.7253304168173763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8772783559972649</v>
+        <v>0.8841202885708982</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>8644</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4306</v>
+        <v>4314</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15047</v>
+        <v>14949</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1964938018991537</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09788600276405998</v>
+        <v>0.09806948895341296</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3420544554689671</v>
+        <v>0.3398149020099249</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -3683,19 +3683,19 @@
         <v>12811</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7349</v>
+        <v>7423</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>19975</v>
+        <v>20537</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1843765708352335</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.105763295962106</v>
+        <v>0.1068316515729801</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2874854408743064</v>
+        <v>0.2955736567997276</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>20</v>
@@ -3704,19 +3704,19 @@
         <v>21455</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>13925</v>
+        <v>13149</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31137</v>
+        <v>31167</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1890742015539202</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.122721644002735</v>
+        <v>0.1158797114291007</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2744065450956108</v>
+        <v>0.2746695831826236</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>29415</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22799</v>
+        <v>21531</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34558</v>
+        <v>33802</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.774845643666813</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6005805244650104</v>
+        <v>0.5671618668867063</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9103262666880338</v>
+        <v>0.8904118500351399</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -3829,19 +3829,19 @@
         <v>54606</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47550</v>
+        <v>47391</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>58865</v>
+        <v>59393</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8431488886677968</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7342015811404471</v>
+        <v>0.7317457369090553</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9089100105788459</v>
+        <v>0.9170757611365986</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>80</v>
@@ -3850,19 +3850,19 @@
         <v>84020</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74773</v>
+        <v>74739</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>91647</v>
+        <v>90964</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8179075021881898</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7278880484387275</v>
+        <v>0.7275578027393879</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8921459498516351</v>
+        <v>0.8855055338187536</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>8547</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3404</v>
+        <v>4160</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15163</v>
+        <v>16431</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.225154356333187</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08967373331196608</v>
+        <v>0.1095881499648601</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3994194755349896</v>
+        <v>0.4328381331132944</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -3900,19 +3900,19 @@
         <v>10158</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5899</v>
+        <v>5371</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17214</v>
+        <v>17373</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1568511113322032</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09108998942115398</v>
+        <v>0.08292423886340133</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2657984188595529</v>
+        <v>0.2682542630909447</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -3921,19 +3921,19 @@
         <v>18706</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>11079</v>
+        <v>11762</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>27953</v>
+        <v>27987</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1820924978118102</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1078540501483649</v>
+        <v>0.114494466181246</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2721119515612725</v>
+        <v>0.2724421972606117</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>33114</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25588</v>
+        <v>25341</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>40262</v>
+        <v>39938</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6564860077987514</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5072794275043081</v>
+        <v>0.5023851255663253</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7981906286753114</v>
+        <v>0.7917592709287432</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -4046,19 +4046,19 @@
         <v>76354</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>67767</v>
+        <v>68530</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>81902</v>
+        <v>81858</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8630051681356835</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.765953689335001</v>
+        <v>0.7745794407264376</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9257222047575453</v>
+        <v>0.9252256561551164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>98</v>
@@ -4067,19 +4067,19 @@
         <v>109469</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>98079</v>
+        <v>98984</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>118779</v>
+        <v>119197</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7880157780471855</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.706027622014639</v>
+        <v>0.7125392250459804</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8550391745513692</v>
+        <v>0.8580411338909802</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>17328</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>10180</v>
+        <v>10504</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>24854</v>
+        <v>25101</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3435139922012486</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2018093713246885</v>
+        <v>0.2082407290712566</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.4927205724956917</v>
+        <v>0.4976148744336747</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -4117,19 +4117,19 @@
         <v>12120</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>6572</v>
+        <v>6616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>20707</v>
+        <v>19944</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1369948318643165</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07427779524245469</v>
+        <v>0.07477434384488359</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2340463106649984</v>
+        <v>0.2254205592735624</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>26</v>
@@ -4138,19 +4138,19 @@
         <v>29448</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20138</v>
+        <v>19720</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>40838</v>
+        <v>39933</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2119842219528145</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1449608254486307</v>
+        <v>0.1419588661090194</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2939723779853611</v>
+        <v>0.2874607749540194</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>347435</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>331929</v>
+        <v>330158</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>363243</v>
+        <v>361789</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.842662811213445</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.805054918555001</v>
+        <v>0.800759441564043</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8810042078351663</v>
+        <v>0.8774763211208795</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>482</v>
@@ -4263,19 +4263,19 @@
         <v>521658</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>504036</v>
+        <v>502827</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>539083</v>
+        <v>538496</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8575063404902218</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8285388408950377</v>
+        <v>0.8265522683016795</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8861498667080128</v>
+        <v>0.8851851925228479</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>813</v>
@@ -4284,19 +4284,19 @@
         <v>869093</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>842963</v>
+        <v>843670</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>890697</v>
+        <v>891325</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.851510084937562</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8259092905314952</v>
+        <v>0.8266012417564186</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8726772168823325</v>
+        <v>0.8732927599789294</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>64871</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>49063</v>
+        <v>50517</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>80377</v>
+        <v>82148</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.157337188786555</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1189957921648335</v>
+        <v>0.1225236788791205</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.194945081444999</v>
+        <v>0.1992405584359569</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -4334,19 +4334,19 @@
         <v>86685</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>69260</v>
+        <v>69847</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104307</v>
+        <v>105516</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1424936595097782</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.113850133291987</v>
+        <v>0.1148148074771518</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1714611591049622</v>
+        <v>0.1734477316983199</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>140</v>
@@ -4355,19 +4355,19 @@
         <v>151556</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>129952</v>
+        <v>129324</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>177686</v>
+        <v>176979</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.148489915062438</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1273227831176676</v>
+        <v>0.1267072400210706</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1740907094685048</v>
+        <v>0.1733987582435813</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>35876</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29888</v>
+        <v>30301</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>39348</v>
+        <v>39733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8530376758146344</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7106548829706386</v>
+        <v>0.7204689075654944</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9355883678776581</v>
+        <v>0.944743503714682</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -4723,19 +4723,19 @@
         <v>40341</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34412</v>
+        <v>34280</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44370</v>
+        <v>44374</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8381866262696126</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7150032469033059</v>
+        <v>0.7122576093533406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9219068572955458</v>
+        <v>0.921983496305134</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>73</v>
@@ -4744,19 +4744,19 @@
         <v>76216</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>67885</v>
+        <v>68000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>82125</v>
+        <v>81591</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8451121773012743</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.752727594681757</v>
+        <v>0.7540100731043511</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9106294011796747</v>
+        <v>0.9047034241442292</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>6181</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2709</v>
+        <v>2324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12169</v>
+        <v>11756</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1469623241853656</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06441163212234205</v>
+        <v>0.05525649628531812</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2893451170293617</v>
+        <v>0.2795310924345057</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -4794,19 +4794,19 @@
         <v>7788</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3759</v>
+        <v>3755</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>13717</v>
+        <v>13849</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1618133737303874</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07809314270445425</v>
+        <v>0.07801650369486599</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2849967530966941</v>
+        <v>0.2877423906466595</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -4815,19 +4815,19 @@
         <v>13969</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8060</v>
+        <v>8594</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22300</v>
+        <v>22185</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1548878226987258</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0893705988203253</v>
+        <v>0.09529657585577085</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2472724053182426</v>
+        <v>0.245989926895649</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>52506</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45476</v>
+        <v>45368</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>56362</v>
+        <v>56089</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8894362376015429</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7703511469408069</v>
+        <v>0.768516872266483</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.954757492914887</v>
+        <v>0.9501226576925803</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>67</v>
@@ -4940,19 +4940,19 @@
         <v>68286</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61261</v>
+        <v>60981</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>73197</v>
+        <v>73460</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8551909377837567</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7672111701245935</v>
+        <v>0.7637023562136082</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.916698745930303</v>
+        <v>0.9199847308588514</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>117</v>
@@ -4961,19 +4961,19 @@
         <v>120792</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>111479</v>
+        <v>112575</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127354</v>
+        <v>127770</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8697471895430986</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8026870069101316</v>
+        <v>0.8105817606223684</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9169916026079908</v>
+        <v>0.9199899871975873</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>6527</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2671</v>
+        <v>2944</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13557</v>
+        <v>13665</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1105637623984571</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04524250708511298</v>
+        <v>0.04987734230741975</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2296488530591932</v>
+        <v>0.2314831277335172</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>12</v>
@@ -5011,19 +5011,19 @@
         <v>11563</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6652</v>
+        <v>6389</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18588</v>
+        <v>18868</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1448090622162433</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0833012540696975</v>
+        <v>0.08001526914114863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2327888298754068</v>
+        <v>0.2362976437863918</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>18</v>
@@ -5032,19 +5032,19 @@
         <v>18090</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>11528</v>
+        <v>11112</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>27403</v>
+        <v>26307</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1302528104569014</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08300839739200908</v>
+        <v>0.08001001280241314</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1973129930898678</v>
+        <v>0.1894182393776316</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>47890</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>40503</v>
+        <v>40004</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>53101</v>
+        <v>52463</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8227792395923426</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.695860102146835</v>
+        <v>0.687296625596082</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.912315670772488</v>
+        <v>0.9013523865203453</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -5157,19 +5157,19 @@
         <v>54183</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47612</v>
+        <v>47322</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>59502</v>
+        <v>59554</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8288929979794292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7283696147967242</v>
+        <v>0.7239396861794397</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9102578997558172</v>
+        <v>0.9110640011267026</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -5178,19 +5178,19 @@
         <v>102074</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>92384</v>
+        <v>91382</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>109745</v>
+        <v>109538</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8260133085669459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7475985877545878</v>
+        <v>0.7394925193053159</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.888093556894366</v>
+        <v>0.8864195799970446</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>10315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5104</v>
+        <v>5742</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>17702</v>
+        <v>18201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1772207604076575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08768432922751185</v>
+        <v>0.09864761347965469</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3041398978531641</v>
+        <v>0.3127033744039179</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -5228,19 +5228,19 @@
         <v>11185</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>5866</v>
+        <v>5814</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17756</v>
+        <v>18046</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1711070020205709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08974210024418286</v>
+        <v>0.08893599887329784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2716303852032757</v>
+        <v>0.2760603138205609</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -5249,19 +5249,19 @@
         <v>21500</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13829</v>
+        <v>14036</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31190</v>
+        <v>32192</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1739866914330541</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.111906443105634</v>
+        <v>0.1135804200029554</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2524014122454108</v>
+        <v>0.260507480694684</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>46568</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>38511</v>
+        <v>38969</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>52165</v>
+        <v>51873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8017396832294933</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6630295205565011</v>
+        <v>0.6709160317407169</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8980906868256875</v>
+        <v>0.8930612142873418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>42</v>
@@ -5374,19 +5374,19 @@
         <v>46413</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38252</v>
+        <v>37450</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>53383</v>
+        <v>53209</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7201813440883285</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5935558579889607</v>
+        <v>0.581105420837762</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8283319186755176</v>
+        <v>0.825630407031404</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>84</v>
@@ -5395,19 +5395,19 @@
         <v>92981</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>82461</v>
+        <v>80833</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>102081</v>
+        <v>101777</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7588430781463075</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6729887277982699</v>
+        <v>0.6596977977031888</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.83311061331456</v>
+        <v>0.8306302816638579</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>11516</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>5919</v>
+        <v>6211</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>19573</v>
+        <v>19115</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1982603167705067</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1019093131743125</v>
+        <v>0.1069387857126583</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3369704794434989</v>
+        <v>0.3290839682592831</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>16</v>
@@ -5445,19 +5445,19 @@
         <v>18033</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11063</v>
+        <v>11237</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>26194</v>
+        <v>26996</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2798186559116715</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1716680813244824</v>
+        <v>0.1743695929685961</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4064441420110393</v>
+        <v>0.4188945791622383</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -5466,19 +5466,19 @@
         <v>29549</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>20449</v>
+        <v>20753</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>40069</v>
+        <v>41697</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2411569218536926</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1668893866854403</v>
+        <v>0.1693697183361422</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3270112722017305</v>
+        <v>0.3403022022968113</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>35547</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>29819</v>
+        <v>29451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>40197</v>
+        <v>39933</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8033417499360473</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6738823829810265</v>
+        <v>0.6655700879789359</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9084366225297043</v>
+        <v>0.9024661623881826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>37</v>
@@ -5591,19 +5591,19 @@
         <v>42481</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>36178</v>
+        <v>36434</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>46737</v>
+        <v>46730</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.867055493568415</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7384138076316658</v>
+        <v>0.7436395506400959</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9539418754175234</v>
+        <v>0.9537869278535193</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>68</v>
@@ -5612,19 +5612,19 @@
         <v>78028</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>69501</v>
+        <v>69496</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83848</v>
+        <v>83544</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8368199126302287</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7453800019831184</v>
+        <v>0.7453180336927614</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8992384572207803</v>
+        <v>0.8959850005876505</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>8702</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4052</v>
+        <v>4316</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14430</v>
+        <v>14798</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1966582500639527</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09156337747029591</v>
+        <v>0.09753383761181744</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3261176170189735</v>
+        <v>0.3344299120210645</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -5662,19 +5662,19 @@
         <v>6513</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2257</v>
+        <v>2264</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>12816</v>
+        <v>12560</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.132944506431585</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04605812458247669</v>
+        <v>0.04621307214648063</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2615861923683346</v>
+        <v>0.2563604493599037</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -5683,19 +5683,19 @@
         <v>15215</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>9395</v>
+        <v>9699</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>23742</v>
+        <v>23747</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1631800873697714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1007615427792197</v>
+        <v>0.1040149994123495</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2546199980168817</v>
+        <v>0.2546819663072386</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>28353</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>21810</v>
+        <v>21471</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>33762</v>
+        <v>33679</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.719153502297025</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.5531933405841767</v>
+        <v>0.5445939705781896</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8563641371258262</v>
+        <v>0.8542429207179613</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>38</v>
@@ -5808,19 +5808,19 @@
         <v>40057</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33785</v>
+        <v>33752</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>44175</v>
+        <v>44202</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8447467963514889</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.712468274194306</v>
+        <v>0.7117849724707986</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9315926856092464</v>
+        <v>0.9321571373210965</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>64</v>
@@ -5829,19 +5829,19 @@
         <v>68410</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>60679</v>
+        <v>59618</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>76106</v>
+        <v>75653</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.7877301963965169</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.6987103613307384</v>
+        <v>0.6865000473837379</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8763561945903701</v>
+        <v>0.8711340731351255</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>11072</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5663</v>
+        <v>5746</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17615</v>
+        <v>17954</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2808464977029749</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1436358628741739</v>
+        <v>0.1457570792820386</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4468066594158233</v>
+        <v>0.45540602942181</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -5879,19 +5879,19 @@
         <v>7362</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>3244</v>
+        <v>3217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13634</v>
+        <v>13667</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1552532036485111</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06840731439075476</v>
+        <v>0.06784286267890344</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2875317258056942</v>
+        <v>0.2882150275292015</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>17</v>
@@ -5900,19 +5900,19 @@
         <v>18434</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>10738</v>
+        <v>11191</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26165</v>
+        <v>27226</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2122698036034831</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.12364380540963</v>
+        <v>0.1288659268648745</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3012896386692617</v>
+        <v>0.3134999526162621</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>23398</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18827</v>
+        <v>19389</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>26589</v>
+        <v>26074</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.826150126404459</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6647444155081996</v>
+        <v>0.6845999765328827</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9388009107191221</v>
+        <v>0.9206139429358878</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>38</v>
@@ -6025,19 +6025,19 @@
         <v>52693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>43868</v>
+        <v>44376</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>58203</v>
+        <v>58513</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8431612941277594</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7019610551246264</v>
+        <v>0.7100853484723908</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9313381920625586</v>
+        <v>0.9363053546769043</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -6046,19 +6046,19 @@
         <v>76091</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>67195</v>
+        <v>67095</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>82778</v>
+        <v>82915</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8378561693003747</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7399077370999194</v>
+        <v>0.7387969597792887</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.911487303951797</v>
+        <v>0.9129957612351018</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>4924</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1733</v>
+        <v>2248</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>9495</v>
+        <v>8933</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.173849873595541</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0611990892808779</v>
+        <v>0.0793860570641121</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3352555844918004</v>
+        <v>0.3154000234671173</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>7</v>
@@ -6096,19 +6096,19 @@
         <v>9801</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4291</v>
+        <v>3981</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18626</v>
+        <v>18118</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1568387058722405</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.06866180793744339</v>
+        <v>0.06369464532309572</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2980389448753742</v>
+        <v>0.2899146515276093</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>13</v>
@@ -6117,19 +6117,19 @@
         <v>14725</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>8038</v>
+        <v>7901</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>23621</v>
+        <v>23721</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1621438306996253</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08851269604820346</v>
+        <v>0.08700423876489827</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2600922629000807</v>
+        <v>0.2612030402207133</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>270138</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>253788</v>
+        <v>254762</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>283724</v>
+        <v>282812</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8201542109977563</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.7705127018798814</v>
+        <v>0.7734722493380783</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8614023493961506</v>
+        <v>0.8586335468770213</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>314</v>
@@ -6242,19 +6242,19 @@
         <v>344454</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>328548</v>
+        <v>327246</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>360314</v>
+        <v>360173</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8266234637234231</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.7884532587751909</v>
+        <v>0.7853282376871331</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8646848364101211</v>
+        <v>0.8643459662109214</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>567</v>
@@ -6263,19 +6263,19 @@
         <v>614592</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>592314</v>
+        <v>592904</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>634732</v>
+        <v>634620</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8237674352509687</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.7939073639338307</v>
+        <v>0.7946980688072423</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8507614250791744</v>
+        <v>0.8506118706297926</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>59237</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>45651</v>
+        <v>46563</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>75587</v>
+        <v>74613</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1798457890022437</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1385976506038494</v>
+        <v>0.1413664531229788</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2294872981201187</v>
+        <v>0.2265277506619219</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>67</v>
@@ -6313,19 +6313,19 @@
         <v>72246</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>56386</v>
+        <v>56527</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>88152</v>
+        <v>89454</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1733765362765769</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1353151635898786</v>
+        <v>0.1356540337890779</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.211546741224809</v>
+        <v>0.2146717623128665</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>123</v>
@@ -6334,19 +6334,19 @@
         <v>131483</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>111343</v>
+        <v>111455</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>153761</v>
+        <v>153171</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1762325647490313</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1492385749208259</v>
+        <v>0.1493881293702074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2060926360661695</v>
+        <v>0.2053019311927579</v>
       </c>
     </row>
     <row r="27">
@@ -6681,7 +6681,7 @@
         <v>44450</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30791</v>
+        <v>31331</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>48521</v>
@@ -6690,7 +6690,7 @@
         <v>0.9160905795356943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6345826443509381</v>
+        <v>0.6457130281015083</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -6702,19 +6702,19 @@
         <v>66287</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54085</v>
+        <v>52928</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>73769</v>
+        <v>73670</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8563082443228456</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6986795585201395</v>
+        <v>0.6837380166860615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9529691991008807</v>
+        <v>0.9516866186065857</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>55</v>
@@ -6723,19 +6723,19 @@
         <v>110736</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>96464</v>
+        <v>92976</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>119856</v>
+        <v>119252</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8793422294488228</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7660144867379071</v>
+        <v>0.7383174996398959</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9517682299460216</v>
+        <v>0.9469722775693387</v>
       </c>
     </row>
     <row r="5">
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17730</v>
+        <v>17190</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08390942046430575</v>
@@ -6764,7 +6764,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3654173556490581</v>
+        <v>0.3542869718984926</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -6773,19 +6773,19 @@
         <v>11123</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3641</v>
+        <v>3740</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>23325</v>
+        <v>24482</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1436917556771545</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04703080089911919</v>
+        <v>0.04831338139341446</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3013204414798611</v>
+        <v>0.3162619833139383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -6794,19 +6794,19 @@
         <v>15194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>6074</v>
+        <v>6678</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>29466</v>
+        <v>32954</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1206577705511771</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04823177005397843</v>
+        <v>0.0530277224306631</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2339855132620943</v>
+        <v>0.2616825003601043</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>62849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>50992</v>
+        <v>50832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67628</v>
+        <v>68020</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8997412276473767</v>
+        <v>0.8997412276473766</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.730001840179169</v>
+        <v>0.7277094733256182</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9681679348902396</v>
+        <v>0.9737723218772084</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -6919,19 +6919,19 @@
         <v>69629</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>61797</v>
+        <v>61329</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74212</v>
+        <v>74215</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9130081192598284</v>
+        <v>0.9130081192598286</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8103125057648696</v>
+        <v>0.8041785231444221</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9731021265645645</v>
+        <v>0.9731410492455909</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>105</v>
@@ -6940,19 +6940,19 @@
         <v>132477</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>120721</v>
+        <v>120820</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>139258</v>
+        <v>139085</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9066657329912028</v>
+        <v>0.9066657329912022</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8262070742229431</v>
+        <v>0.8268811874423201</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9530682450473528</v>
+        <v>0.9518904759210411</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>7003</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2224</v>
+        <v>1832</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18860</v>
+        <v>19020</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1002587723526233</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03183206510976078</v>
+        <v>0.02622767812279168</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.269998159820831</v>
+        <v>0.272290526674383</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -6990,19 +6990,19 @@
         <v>6634</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2051</v>
+        <v>2048</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14466</v>
+        <v>14934</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.08699188074017146</v>
+        <v>0.08699188074017147</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02689787343543552</v>
+        <v>0.02685895075440881</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1896874942351306</v>
+        <v>0.195821476855577</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -7011,19 +7011,19 @@
         <v>13638</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>6857</v>
+        <v>7030</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25394</v>
+        <v>25295</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.09333426700879748</v>
+        <v>0.09333426700879743</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04693175495264688</v>
+        <v>0.04810952407895881</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1737929257770565</v>
+        <v>0.17311881255768</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>81312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73345</v>
+        <v>72389</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>86332</v>
+        <v>86391</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9038255695725178</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8152756515093996</v>
+        <v>0.8046487816136425</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.959627709291184</v>
+        <v>0.9602797322802427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>125</v>
@@ -7136,19 +7136,19 @@
         <v>90789</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>84055</v>
+        <v>83969</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>96658</v>
+        <v>96472</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8451959339467563</v>
+        <v>0.8451959339467564</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7825013162846751</v>
+        <v>0.7817035264062517</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8998284802544185</v>
+        <v>0.8980992705313069</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>199</v>
@@ -7157,19 +7157,19 @@
         <v>172101</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>161019</v>
+        <v>161611</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>180202</v>
+        <v>179902</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.8719184357243911</v>
+        <v>0.8719184357243913</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.815773610272854</v>
+        <v>0.8187729517379648</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9129583717301436</v>
+        <v>0.9114402427985037</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>8652</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3632</v>
+        <v>3573</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>16619</v>
+        <v>17575</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09617443042748215</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04037229070881594</v>
+        <v>0.03972026771975721</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1847243484906004</v>
+        <v>0.1953512183863569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>22</v>
@@ -7207,19 +7207,19 @@
         <v>16629</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>10760</v>
+        <v>10946</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23363</v>
+        <v>23449</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1548040660532437</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1001715197455814</v>
+        <v>0.1019007294686932</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2174986837153248</v>
+        <v>0.2182964735937483</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -7228,19 +7228,19 @@
         <v>25281</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>17180</v>
+        <v>17480</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36363</v>
+        <v>35771</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1280815642756087</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08704162826985641</v>
+        <v>0.08855975720149659</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.184226389727146</v>
+        <v>0.1812270482620354</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>117535</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110009</v>
+        <v>111453</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>121389</v>
+        <v>121721</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9445017316605041</v>
+        <v>0.944501731660504</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8840220753092054</v>
+        <v>0.8956299116540088</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9754740230029731</v>
+        <v>0.9781387094400815</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>164</v>
@@ -7353,19 +7353,19 @@
         <v>106072</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>100239</v>
+        <v>99951</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>110558</v>
+        <v>110491</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.8946688835639671</v>
+        <v>0.8946688835639672</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8454728753169033</v>
+        <v>0.8430402495387586</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9325037833964721</v>
+        <v>0.9319398866343388</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>272</v>
@@ -7374,19 +7374,19 @@
         <v>223607</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>215139</v>
+        <v>214901</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>230279</v>
+        <v>230224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9201884107945125</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8853422460917622</v>
+        <v>0.8843613157051021</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9476448632849439</v>
+        <v>0.9474192916160892</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>6906</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3052</v>
+        <v>2720</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>14432</v>
+        <v>12988</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.05549826833949593</v>
+        <v>0.05549826833949592</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02452597699702689</v>
+        <v>0.02186129055991839</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1159779246907948</v>
+        <v>0.1043700883459914</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -7424,19 +7424,19 @@
         <v>12488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>8002</v>
+        <v>8069</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18321</v>
+        <v>18609</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1053311164360328</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06749621660352768</v>
+        <v>0.06806011336566151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1545271246830957</v>
+        <v>0.1569597504612415</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -7445,19 +7445,19 @@
         <v>19394</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12722</v>
+        <v>12777</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>27862</v>
+        <v>28100</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.07981158920548739</v>
+        <v>0.07981158920548738</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0523551367150563</v>
+        <v>0.05258070838391043</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.114657753908238</v>
+        <v>0.1156386842948974</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>87828</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81607</v>
+        <v>81742</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>91100</v>
+        <v>91153</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9409408710857966</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8742920485461873</v>
+        <v>0.875739688163093</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9759874781660188</v>
+        <v>0.9765550142999988</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>150</v>
@@ -7570,19 +7570,19 @@
         <v>94437</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>87300</v>
+        <v>87715</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>99242</v>
+        <v>100128</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8523699400157319</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7879519014940297</v>
+        <v>0.7917001538138639</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8957438497558111</v>
+        <v>0.9037392508948739</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>244</v>
@@ -7591,19 +7591,19 @@
         <v>182265</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>174653</v>
+        <v>173707</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>188976</v>
+        <v>189100</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8928692192151011</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8555808093341365</v>
+        <v>0.850946413669212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9257458126089418</v>
+        <v>0.9263514530718194</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>5513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2241</v>
+        <v>2188</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11734</v>
+        <v>11599</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.05905912891420333</v>
+        <v>0.05905912891420331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02401252183398139</v>
+        <v>0.02344498570000108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1257079514538127</v>
+        <v>0.124260311836907</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -7641,19 +7641,19 @@
         <v>16356</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>11551</v>
+        <v>10665</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23493</v>
+        <v>23078</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1476300599842682</v>
+        <v>0.1476300599842681</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1042561502441889</v>
+        <v>0.09626074910512614</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2120480985059701</v>
+        <v>0.208299846186136</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -7662,19 +7662,19 @@
         <v>21869</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15158</v>
+        <v>15034</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>29481</v>
+        <v>30427</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1071307807848988</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07425418739105809</v>
+        <v>0.07364854692818033</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1444191906658636</v>
+        <v>0.149053586330788</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>44156</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>39426</v>
+        <v>39152</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>47141</v>
+        <v>47107</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.8840661795997093</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7893625556120489</v>
+        <v>0.7838905496558843</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9438297379923055</v>
+        <v>0.9431648916316844</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>118</v>
@@ -7787,19 +7787,19 @@
         <v>64591</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>58775</v>
+        <v>59258</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>69113</v>
+        <v>69211</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8221606969862902</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.7481318868721302</v>
+        <v>0.7542732808519615</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8797188399618417</v>
+        <v>0.8809598277528253</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>181</v>
@@ -7808,19 +7808,19 @@
         <v>108747</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>101954</v>
+        <v>101633</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114081</v>
+        <v>114428</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8462206436674654</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7933613029465872</v>
+        <v>0.7908615689839323</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8877307893149314</v>
+        <v>0.8904275483852961</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>5790</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2805</v>
+        <v>2839</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>10520</v>
+        <v>10794</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1159338204002907</v>
+        <v>0.1159338204002906</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05617026200769364</v>
+        <v>0.05683510836831566</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2106374443879507</v>
+        <v>0.2161094503441156</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>24</v>
@@ -7858,19 +7858,19 @@
         <v>13972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9450</v>
+        <v>9352</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19788</v>
+        <v>19305</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.1778393030137096</v>
+        <v>0.1778393030137095</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1202811600381581</v>
+        <v>0.1190401722471747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2518681131278697</v>
+        <v>0.2457267191480383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>32</v>
@@ -7879,19 +7879,19 @@
         <v>19762</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14428</v>
+        <v>14081</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>26555</v>
+        <v>26876</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1537793563325346</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1122692106850686</v>
+        <v>0.109572451614704</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2066386970534127</v>
+        <v>0.2091384310160679</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>40984</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35553</v>
+        <v>35408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>45311</v>
+        <v>45114</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7926958546489524</v>
+        <v>0.7926958546489523</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6876443533661631</v>
+        <v>0.6848529849739119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8763962635139572</v>
+        <v>0.8725804021693998</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -8004,19 +8004,19 @@
         <v>88649</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>82210</v>
+        <v>81780</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>93820</v>
+        <v>93849</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8421789745227051</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7810015313964194</v>
+        <v>0.7769173986114514</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8912950989184575</v>
+        <v>0.8915730005793703</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>232</v>
@@ -8025,19 +8025,19 @@
         <v>129633</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120764</v>
+        <v>121640</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>136094</v>
+        <v>136839</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.8258798754574992</v>
+        <v>0.8258798754574993</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7693759170834475</v>
+        <v>0.7749536930576414</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8670425617013517</v>
+        <v>0.8717866118147338</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>10718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6391</v>
+        <v>6588</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>16149</v>
+        <v>16294</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2073041453510477</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1236037364860429</v>
+        <v>0.1274195978306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.312355646633837</v>
+        <v>0.3151470150260874</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>29</v>
@@ -8075,19 +8075,19 @@
         <v>16613</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>11442</v>
+        <v>11413</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>23052</v>
+        <v>23482</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1578210254772947</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1087049010815428</v>
+        <v>0.1084269994206301</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2189984686035805</v>
+        <v>0.2230826013885492</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>45</v>
@@ -8096,19 +8096,19 @@
         <v>27331</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>20870</v>
+        <v>20125</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>36200</v>
+        <v>35324</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1741201245425008</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1329574382986482</v>
+        <v>0.1282133881852662</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2306240829165524</v>
+        <v>0.2250463069423586</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>479112</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>462088</v>
+        <v>461529</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>492095</v>
+        <v>492125</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.9078111572593979</v>
+        <v>0.9078111572593981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8755538985533571</v>
+        <v>0.8744947821600961</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9324118169035517</v>
+        <v>0.9324685770339347</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>828</v>
@@ -8221,19 +8221,19 @@
         <v>580454</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>562511</v>
+        <v>559623</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>595883</v>
+        <v>594694</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8608644646372262</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8342526699330572</v>
+        <v>0.8299694039945383</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8837466341195492</v>
+        <v>0.8819830335530358</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1288</v>
@@ -8242,19 +8242,19 @@
         <v>1059567</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1033566</v>
+        <v>1034390</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1082093</v>
+        <v>1080261</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.8814769029678347</v>
+        <v>0.8814769029678348</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8598464140851652</v>
+        <v>0.8605313876107855</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9002167618153917</v>
+        <v>0.8986928723865755</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>48654</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>35671</v>
+        <v>35641</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>65678</v>
+        <v>66237</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09218884274060209</v>
+        <v>0.0921888427406021</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06758818309644843</v>
+        <v>0.06753142296606517</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.124446101446643</v>
+        <v>0.1255052178399039</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>130</v>
@@ -8292,19 +8292,19 @@
         <v>93815</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78386</v>
+        <v>79575</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>111758</v>
+        <v>114646</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1391355353627737</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1162533658804508</v>
+        <v>0.1180169664469642</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1657473300669426</v>
+        <v>0.1700305960054614</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>179</v>
@@ -8313,19 +8313,19 @@
         <v>142469</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>119943</v>
+        <v>121775</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>168470</v>
+        <v>167646</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1185230970321652</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09978323818460837</v>
+        <v>0.1013071276134246</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1401535859148347</v>
+        <v>0.1394686123892144</v>
       </c>
     </row>
     <row r="27">
